--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1663383.304241981</v>
+        <v>1654739.525348074</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1318516.641766703</v>
+        <v>617089.3707855195</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109826</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10539372.29004432</v>
+        <v>10757764.99812417</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>240.5052849021634</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>28.43475307945396</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>47.14167849255911</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>370.9883291381872</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>299.0085384324616</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.85099796338696</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>28.51033041214341</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>380.369554843633</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>121.2547094525073</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.84234274505293</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>341.4809964489806</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958677</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183528</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>143.3158222056521</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>79.28604738508892</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>25.06599159720418</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>18.58007567966379</v>
+        <v>49.38162151975496</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>91.04645315989224</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>32.04608311830555</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>144.1504526722474</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>245.1705794240333</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>209.7423374963455</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2733,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>64.34190763938388</v>
       </c>
       <c r="U28" t="n">
-        <v>108.8137654404057</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2970,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>86.35693236788129</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>161.6195484041295</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5.459896748108823</v>
+        <v>19.75667980149158</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>135.5535868730193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>75.59237361796707</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>136.6953559504323</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>148.7416974947219</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>149.4433890341031</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>147.1163355383938</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1602.48111343776</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1233.518596497348</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>875.252897890598</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>875.252897890598</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>464.2669931009904</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>450.3435890395813</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2492.249630524863</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2139.480975254749</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>248.4507863814658</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.823100673951</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C5" t="n">
-        <v>1584.823100673951</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1584.823100673951</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4603,16 +4603,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>688.885551920185</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>519.9493689922781</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117852</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1920.389229338189</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1562.123530731439</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1176.335278133194</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>765.3493733435869</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2343.463409365404</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2012.400522021833</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>1659.631866751719</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1659.631866751719</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1269.492534775907</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.0633493392339</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>88.12716641132701</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>88.12716641132701</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>88.12716641132701</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1942.924467505049</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1573.961950564638</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1215.696251957887</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>829.9079993596429</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>418.9220945700353</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>73.99179512662052</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>73.99179512662052</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403563</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449756</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331026</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331026</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331026</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331026</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.898053076177</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3445.898053076177</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3093.129397806063</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2719.663639544983</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2329.524307569171</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835159</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893253</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155443</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M12" t="n">
-        <v>1433.695151562147</v>
+        <v>865.5852378527477</v>
       </c>
       <c r="N12" t="n">
-        <v>2106.900843814929</v>
+        <v>1669.996816116899</v>
       </c>
       <c r="O12" t="n">
-        <v>2656.336852567651</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.99179512662052</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="C13" t="n">
-        <v>73.99179512662052</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="D13" t="n">
-        <v>73.99179512662052</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="E13" t="n">
-        <v>73.99179512662052</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="F13" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662052</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222301</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230481</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422856</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783895</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669882</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165604</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>993.8395600353683</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>993.8395600353683</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V13" t="n">
-        <v>993.8395600353683</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W13" t="n">
-        <v>704.4223899984077</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X13" t="n">
-        <v>476.4328391003903</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="Y13" t="n">
-        <v>255.6402599568602</v>
+        <v>241.9805482336719</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2015.081949825207</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>1646.119432884795</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.853734278045</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>902.0654816798005</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>491.079576890193</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>73.99179512662052</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
-        <v>73.99179512662052</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403564</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.9120654066</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449756</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331026</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331026</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827854</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>3543.374718827854</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>3543.374718827854</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3518.055535396335</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3165.28688012622</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>2791.82112186514</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2401.681789889329</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>369.1820336142066</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L15" t="n">
-        <v>369.1820336142066</v>
+        <v>711.1141612171748</v>
       </c>
       <c r="M15" t="n">
-        <v>1009.727383081311</v>
+        <v>1479.482307609637</v>
       </c>
       <c r="N15" t="n">
-        <v>1682.933075334092</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O15" t="n">
-        <v>2232.369084086814</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221.9048887090136</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="C16" t="n">
-        <v>221.9048887090136</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="D16" t="n">
-        <v>221.9048887090136</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E16" t="n">
-        <v>73.99179512662052</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F16" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662052</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.926476585963</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>784.7743001636427</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V16" t="n">
-        <v>530.0898119577558</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W16" t="n">
-        <v>240.6726419207952</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X16" t="n">
-        <v>221.9048887090136</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="Y16" t="n">
-        <v>221.9048887090136</v>
+        <v>392.0201325405894</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,25 +5597,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1604.839867667473</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>2081.365391933461</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2360.905457152158</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0324822735073</v>
+        <v>595.5296422260202</v>
       </c>
       <c r="C19" t="n">
-        <v>337.0962993456004</v>
+        <v>426.5934592981133</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>276.4768198857776</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="20">
@@ -5749,34 +5749,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L21" t="n">
-        <v>508.1073603047985</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>508.1073603047985</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1312.518938568949</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.982699871608</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2502.283321607356</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>581.2185435662825</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1353.309752707147</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1353.309752707147</v>
+        <v>1051.349210550189</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.625264501261</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="W22" t="n">
-        <v>809.2080944642998</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="X22" t="n">
-        <v>581.2185435662825</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="Y22" t="n">
-        <v>581.2185435662825</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>2107.322705390779</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>237.776412546148</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C25" t="n">
-        <v>237.776412546148</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D25" t="n">
-        <v>237.776412546148</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E25" t="n">
-        <v>237.776412546148</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441654</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X25" t="n">
-        <v>237.776412546148</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y25" t="n">
-        <v>237.776412546148</v>
+        <v>545.8631874464246</v>
       </c>
     </row>
     <row r="26">
@@ -6229,7 +6229,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6308,22 +6308,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>465.3115584262483</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L27" t="n">
-        <v>695.2746642945974</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M27" t="n">
-        <v>1463.642810687059</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.6134626728254</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>710.6134626728254</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="U28" t="n">
-        <v>965.2979508787123</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V28" t="n">
-        <v>710.6134626728254</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W28" t="n">
-        <v>710.6134626728254</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X28" t="n">
-        <v>710.6134626728254</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y28" t="n">
-        <v>710.6134626728254</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,19 +6448,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6475,19 +6475,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>221.7031922576317</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L30" t="n">
-        <v>468.4683201640958</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M30" t="n">
-        <v>1236.836466556557</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>822.1480540508779</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="C31" t="n">
-        <v>822.1480540508779</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>334.864324526364</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>184.4463160743073</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X31" t="n">
-        <v>1224.589098024648</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.796518881118</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="32">
@@ -6685,22 +6685,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514081</v>
@@ -6712,37 +6712,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L33" t="n">
-        <v>618.8589595388348</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1942790685366</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>1743.605857332687</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>271.6683216085047</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="C34" t="n">
-        <v>102.7321386805978</v>
+        <v>562.0930141766539</v>
       </c>
       <c r="D34" t="n">
-        <v>102.7321386805978</v>
+        <v>411.9763747643182</v>
       </c>
       <c r="E34" t="n">
-        <v>102.7321386805978</v>
+        <v>264.063281181925</v>
       </c>
       <c r="F34" t="n">
-        <v>102.7321386805978</v>
+        <v>117.1733336840147</v>
       </c>
       <c r="G34" t="n">
-        <v>102.7321386805978</v>
+        <v>117.1733336840147</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>1009.867621687013</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>720.4504516500522</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X34" t="n">
-        <v>492.4609007520348</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y34" t="n">
-        <v>271.6683216085047</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="35">
@@ -6916,34 +6916,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207829</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1421.865983987256</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y37" t="n">
-        <v>1278.123691414372</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126481</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1184.755496649498</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1514.618124313531</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>822.1480540508779</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C40" t="n">
-        <v>822.1480540508779</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.565224087838</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1111.565224087838</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>1111.565224087838</v>
+        <v>1249.765049998079</v>
       </c>
       <c r="W40" t="n">
-        <v>822.1480540508779</v>
+        <v>960.3478799611183</v>
       </c>
       <c r="X40" t="n">
-        <v>822.1480540508779</v>
+        <v>732.358329063101</v>
       </c>
       <c r="Y40" t="n">
-        <v>822.1480540508779</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,7 +7447,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N42" t="n">
-        <v>2107.322705390779</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>692.3809108364826</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
         <v>244.1070389581962</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1347.963352341637</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1347.963352341637</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>1093.27886413575</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>803.861694098789</v>
       </c>
       <c r="X43" t="n">
-        <v>692.3809108364826</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="Y43" t="n">
-        <v>692.3809108364826</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1188.130761344647</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916676</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916676</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916676</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4741.167820987513</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4452.039182201071</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="V46" t="n">
-        <v>4197.354693995184</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="W46" t="n">
-        <v>3907.937523958223</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X46" t="n">
-        <v>3679.947973060206</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916676</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>229.8812311355854</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,10 +9971,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>3.409358277928106</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>269.6334050313357</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>71.43590749695613</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>2.10522581727912</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176916</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>144.0868573356698</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>302.6862668729307</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>207.1295797093734</v>
+        <v>176.3280338692822</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>57.56901985832012</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>114.3878795282636</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>77.39710838614189</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>41.06677297454405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>6.267320147927649</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>8.842315855749263</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>157.2056534190054</v>
       </c>
       <c r="U28" t="n">
-        <v>177.4235869581717</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>24.06231309639071</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>64.09010698490769</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>143.4539316194273</v>
+        <v>129.1571485660446</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>209.9575686936378</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>145.9551874404222</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>115.4422873733957</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>18.5051236039059</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>72.10417202428619</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>139.1210168601835</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793678.7908793103</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793678.7908793103</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918918.2903836159</v>
+        <v>918918.2903836162</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918918.290383616</v>
+        <v>918918.2903836162</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>918918.290383616</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.2903836162</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>388396.0040473219</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473216</v>
+        <v>449683.4186983655</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983649</v>
       </c>
       <c r="H2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="I2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449683.4186983649</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="J2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449683.4186983652</v>
-      </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.418698365</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188429</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659104</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965298</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>639.5264553066584</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="F4" t="n">
-        <v>639.5264553066584</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
@@ -26438,7 +26438,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
@@ -26450,13 +26450,13 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26472,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360138</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360138</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.0787866102</v>
+        <v>-339787.07878661</v>
       </c>
       <c r="C6" t="n">
         <v>250180.8004279344</v>
       </c>
       <c r="D6" t="n">
-        <v>250180.8004279342</v>
+        <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>70438.16568957092</v>
+        <v>-169226.3286775455</v>
       </c>
       <c r="F6" t="n">
-        <v>318584.9343084135</v>
+        <v>355933.7077993513</v>
       </c>
       <c r="G6" t="n">
-        <v>93145.40979316234</v>
+        <v>355933.7077993512</v>
       </c>
       <c r="H6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.7077993508</v>
       </c>
       <c r="I6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.7077993508</v>
       </c>
       <c r="J6" t="n">
-        <v>180485.0798664796</v>
+        <v>179510.488606758</v>
       </c>
       <c r="K6" t="n">
-        <v>356908.2990590727</v>
+        <v>355933.7077993509</v>
       </c>
       <c r="L6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.7077993507</v>
       </c>
       <c r="M6" t="n">
-        <v>294455.2431694198</v>
+        <v>221132.6925655135</v>
       </c>
       <c r="N6" t="n">
-        <v>356908.2990590728</v>
+        <v>355933.707799351</v>
       </c>
       <c r="O6" t="n">
-        <v>287043.4142091615</v>
+        <v>355933.707799351</v>
       </c>
       <c r="P6" t="n">
-        <v>356908.2990590727</v>
+        <v>355933.7077993508</v>
       </c>
     </row>
   </sheetData>
@@ -26740,34 +26740,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380637</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26792,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827565</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827565</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209771</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160367</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282009</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708166</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282009</v>
+        <v>540.9263704990183</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282009</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708166</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83.41748786219372</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>299.3175053906809</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>109.029210349236</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>10.94204093407456</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>28.74372003767326</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.9809822185503</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0.6124195427708905</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>33.41461517716198</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>129.969458055782</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>11.35761644348407</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31606,7 +31606,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653214</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055153</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>91.9798486765154</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937397</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779014</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074815</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359661</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>401.986115782251</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426693</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810504</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985299</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182831</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070424</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512816</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>87.79680896666815</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900646</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>303.719792594707</v>
+        <v>186.3865186257879</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080785</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308305</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897132</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888312</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206995</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490362</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104762</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937807</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685357</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522784</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>91.84465193776617</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32317,19 +32317,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N18" t="n">
-        <v>133.338251139767</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32338,13 +32338,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32554,34 +32554,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.41982349035656</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,28 +32797,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>182.1863469133063</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>245.1887948566919</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>221.6747961783875</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,25 +33499,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>41.93843809132551</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,22 +33745,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33973,10 +33973,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33985,19 +33985,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34210,22 +34210,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>368.9552512585109</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,22 +34456,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391272</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040856</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730413</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513593</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588824</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584802</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.755963945262</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748666</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>411.3678387946497</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502848</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269921</v>
+        <v>437.6525934580729</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.45284789935323</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>298.1719580682688</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122262</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502846</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>343.1107267700513</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N18" t="n">
-        <v>481.3389133999872</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.5153371401841</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>433.4524217455914</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>371.8125928949115</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>83.83335720402852</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>293.2045129236106</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>285.7730605190362</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>226.3590068140665</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>518.89110998736</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1654739.525348074</v>
+        <v>1660797.023521537</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>617089.3707855195</v>
+        <v>456298.3348935159</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1702443.552109827</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10757764.99812417</v>
+        <v>10539372.29004432</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>240.5052849021634</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>47.14167849255911</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>39.22879305694475</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>299.0085384324616</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.51033041214341</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>380.369554843633</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>127.0784597613397</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>5.656021302519489</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052002</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>45.4458084395868</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183534</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>143.3158222056521</v>
+        <v>77.06663511754378</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>207.9529206055904</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274225</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>49.38162151975496</v>
+        <v>159.4196823148297</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>157.3129833303993</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>32.04608311830555</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>245.1705794240333</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>33.35146980185858</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>134.2188895428455</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.7423374963455</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>64.34190763938388</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>86.35693236788129</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>89.95090007100355</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>33.92757820193509</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>19.75667980149158</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>42.02510219382536</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>76.27978370493953</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>26.27275520016748</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>136.6953559504323</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>149.4433890341031</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>147.1163355383938</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1602.48111343776</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>1233.518596497348</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>875.252897890598</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>875.252897890598</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>464.2669931009904</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>450.3435890395813</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.48111343776</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,25 +4427,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>248.4507863814658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>101.5608388835555</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>101.5608388835555</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781316</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="V5" t="n">
-        <v>2340.091574849259</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W5" t="n">
-        <v>1987.322919579145</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.857161318065</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y5" t="n">
-        <v>1223.717829342253</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.6822058285749</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>699.3306706588146</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>699.3306706588146</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>699.3306706588146</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>699.3306706588146</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>699.3306706588146</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>699.3306706588146</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>699.3306706588146</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>699.3306706588146</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3306706588146</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2289.351746278601</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1920.389229338189</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1562.123530731439</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1176.335278133194</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>765.3493733435869</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2513.758320981706</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y8" t="n">
-        <v>2289.351746278601</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641985</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>1240.846680926016</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1235.133528095188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>876.8678294884373</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>491.079576890193</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406598</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>3454.413795556124</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>3699.589756331024</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>3699.589756331024</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827852</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095563</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>3074.883153840714</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>2743.820266497143</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2391.051611227029</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>2017.585852965949</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>1627.446520990137</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028589</v>
+        <v>199.3493551844579</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028589</v>
+        <v>703.7108950505756</v>
       </c>
       <c r="M12" t="n">
-        <v>865.5852378527477</v>
+        <v>1344.256244517679</v>
       </c>
       <c r="N12" t="n">
-        <v>1669.996816116899</v>
+        <v>1688.776900155297</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2238.212908908019</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2586.942294054321</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.9805482336719</v>
+        <v>625.144346544415</v>
       </c>
       <c r="C13" t="n">
-        <v>241.9805482336719</v>
+        <v>456.2081636165082</v>
       </c>
       <c r="D13" t="n">
-        <v>241.9805482336719</v>
+        <v>306.0915242041724</v>
       </c>
       <c r="E13" t="n">
-        <v>241.9805482336719</v>
+        <v>306.0915242041724</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765193</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706325</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336719</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X13" t="n">
-        <v>241.9805482336719</v>
+        <v>845.9369256879452</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.9805482336719</v>
+        <v>625.144346544415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>1397.061718429189</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>1028.099201488777</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>669.8335028820268</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>284.0452502837825</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>284.0452502837825</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822478</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>2173.800890469122</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>1783.661558493311</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028589</v>
+        <v>237.1905083005541</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171748</v>
+        <v>467.1536141689032</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609637</v>
+        <v>1107.698963636007</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405894</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405894</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405894</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581963</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609671</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550802</v>
+        <v>819.2419883800761</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181196</v>
+        <v>529.8248183431156</v>
       </c>
       <c r="X16" t="n">
-        <v>392.0201325405894</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.0201325405894</v>
+        <v>368.7948362069239</v>
       </c>
     </row>
     <row r="17">
@@ -5494,37 +5494,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5536,28 +5536,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>841.2209420433996</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>595.5296422260202</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C19" t="n">
-        <v>426.5934592981133</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D19" t="n">
-        <v>276.4768198857776</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.311772267568</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>816.3222213695503</v>
+        <v>981.5095496229242</v>
       </c>
       <c r="Y19" t="n">
-        <v>595.5296422260202</v>
+        <v>981.5095496229242</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5761,7 +5761,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,13 +5831,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>436.8967109626376</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M21" t="n">
         <v>1819.161927111988</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028583</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1051.349210550189</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>796.6647223443018</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>796.6647223443018</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X22" t="n">
-        <v>796.6647223443018</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6010,28 +6010,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
         <v>1819.161927111988</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.8631874464246</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C25" t="n">
-        <v>376.9270045185177</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>376.9270045185177</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W25" t="n">
-        <v>985.7136853104475</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X25" t="n">
-        <v>757.7241344124302</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y25" t="n">
-        <v>545.8631874464246</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>436.8967109626376</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
         <v>1819.161927111988</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1322.84934122136</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1322.84934122136</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1322.84934122136</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1322.84934122136</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>1322.84934122136</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,31 +6530,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>503.0396462065435</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C31" t="n">
-        <v>503.0396462065435</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D31" t="n">
-        <v>503.0396462065435</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E31" t="n">
-        <v>503.0396462065435</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>503.0396462065435</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>334.864324526364</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>184.4463160743073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1208.136765452239</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>1208.136765452239</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.446367141521</v>
+        <v>953.4522772463521</v>
       </c>
       <c r="W31" t="n">
-        <v>731.0291971045608</v>
+        <v>953.4522772463521</v>
       </c>
       <c r="X31" t="n">
-        <v>503.0396462065435</v>
+        <v>953.4522772463521</v>
       </c>
       <c r="Y31" t="n">
-        <v>503.0396462065435</v>
+        <v>732.6596981028219</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6697,7 +6697,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>436.8967109626376</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>731.0291971045608</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C34" t="n">
-        <v>562.0930141766539</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9763747643182</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E34" t="n">
-        <v>264.063281181925</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>117.1733336840147</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>117.1733336840147</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>731.0291971045608</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>731.0291971045608</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>731.0291971045608</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="35">
@@ -7025,10 +7025,10 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1421.865983987256</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.181495781369</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>877.7643257444088</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>649.7747748463914</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>428.9821957028613</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,40 +7159,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7219,7 +7219,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.358329063101</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>123.7552280261116</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>1249.765049998079</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W40" t="n">
-        <v>960.3478799611183</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X40" t="n">
-        <v>732.358329063101</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y40" t="n">
-        <v>732.358329063101</v>
+        <v>271.6683216085047</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>394.223678370532</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>394.223678370532</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1347.963352341637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1347.963352341637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1093.27886413575</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>803.861694098789</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>575.8721432007717</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>575.8721432007717</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7730,13 +7730,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1350.313911428212</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1350.313911428212</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1060.896741391251</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -10205,7 +10205,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10679,7 +10679,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>359.6168704684881</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>2.10522581727912</v>
+        <v>68.35441290538746</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176921</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>204.9639833403464</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>176.3280338692822</v>
+        <v>66.28997307420747</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>22.51899685153796</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>114.3878795282636</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23949,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>41.06677297454405</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>91.49076584619169</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.842315855749263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.105225817279774</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>157.2056534190054</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.06231309639071</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>131.5966609873857</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>145.9044019800022</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>129.1571485660446</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>125.2217189048025</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25368,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>209.9575686936378</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>119.1482928227638</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>115.4422873733957</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>72.10417202428619</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.1210168601835</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918918.290383616</v>
+        <v>793678.7908793103</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918918.2903836161</v>
+        <v>793678.7908793102</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26322,31 +26322,31 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983653</v>
+        <v>388396.0040473214</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983655</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="G2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983649</v>
       </c>
-      <c r="H2" t="n">
-        <v>449683.418698365</v>
-      </c>
       <c r="I2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983649</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983649</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983649</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983651</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>248146.7686188425</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659101</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>62453.05588965286</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758697</v>
+        <v>639.5264553066581</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758696</v>
+        <v>639.5264553066584</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-339787.07878661</v>
       </c>
       <c r="C6" t="n">
-        <v>250180.8004279344</v>
+        <v>250180.8004279345</v>
       </c>
       <c r="D6" t="n">
-        <v>250180.8004279344</v>
+        <v>250180.8004279345</v>
       </c>
       <c r="E6" t="n">
-        <v>-169226.3286775455</v>
+        <v>70074.23954337688</v>
       </c>
       <c r="F6" t="n">
-        <v>355933.7077993513</v>
+        <v>318221.0081622192</v>
       </c>
       <c r="G6" t="n">
-        <v>355933.7077993512</v>
+        <v>93047.95066719026</v>
       </c>
       <c r="H6" t="n">
-        <v>355933.7077993508</v>
+        <v>356810.8399331001</v>
       </c>
       <c r="I6" t="n">
-        <v>355933.7077993508</v>
+        <v>356810.8399331003</v>
       </c>
       <c r="J6" t="n">
-        <v>179510.488606758</v>
+        <v>180387.6207405073</v>
       </c>
       <c r="K6" t="n">
-        <v>355933.7077993509</v>
+        <v>356810.8399331005</v>
       </c>
       <c r="L6" t="n">
-        <v>355933.7077993507</v>
+        <v>356810.8399331004</v>
       </c>
       <c r="M6" t="n">
-        <v>221132.6925655135</v>
+        <v>294357.7840434476</v>
       </c>
       <c r="N6" t="n">
-        <v>355933.707799351</v>
+        <v>356810.8399331004</v>
       </c>
       <c r="O6" t="n">
-        <v>355933.707799351</v>
+        <v>286945.9550831892</v>
       </c>
       <c r="P6" t="n">
-        <v>355933.7077993508</v>
+        <v>356810.8399331004</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>593.4761003380632</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>924.897439082756</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>215.7324361209767</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160364</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>250.6101663282004</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990183</v>
+        <v>250.6101663282004</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>250.6101663282004</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>83.41748786219372</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>109.029210349236</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>15.24960951786696</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>28.74372003767326</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6124195427708905</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>33.41461517716198</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>222.1625089560733</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31378,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653214</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>2.385833569198242</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651533</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>202.4946418937395</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>425.7102483359657</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>343.085849542669</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>149.8691179411492</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840362</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>43.95082441182828</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31846,34 +31846,34 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>323.4444746842444</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>186.3865186257879</v>
+        <v>303.7197925947067</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>167.7635429625768</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>79.2570535508078</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>23.71104985784619</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>5.145325813308301</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.08398246702897125</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>9.515075838206988</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490356</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>129.4361645720916</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>89.61489115104754</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>48.12020970937803</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>18.65071613685355</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.05837469839390792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>38.22338698595573</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776617</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,28 +32308,28 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>104.1923998689415</v>
       </c>
       <c r="M18" t="n">
-        <v>380.6284621420188</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,16 +32551,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>212.6272478467034</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>212.6272478467031</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
@@ -33025,16 +33025,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813461</v>
@@ -33265,7 +33265,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
@@ -33274,7 +33274,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33499,10 +33499,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
@@ -33511,7 +33511,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>380.6284621420188</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33985,7 +33985,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34213,25 +34213,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34450,7 +34450,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
@@ -34459,7 +34459,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047517</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>407.5425384040853</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>633.644109151359</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>433.6515619588821</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>437.6525934580729</v>
+        <v>554.9858674269918</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>352.2519041881837</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531408</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>175.8534296854529</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>3.452847899353159</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>164.8471850241753</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004665</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700513</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>336.4783653925265</v>
       </c>
       <c r="M18" t="n">
-        <v>704.1994919700004</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>536.198277674685</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,7 +36445,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>536.1982776746847</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36922,10 +36922,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
@@ -37159,7 +37159,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>704.1994919700004</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37633,7 +37633,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
@@ -38107,7 +38107,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
